--- a/biology/Médecine/Syndrome_de_De_Winter/Syndrome_de_De_Winter.xlsx
+++ b/biology/Médecine/Syndrome_de_De_Winter/Syndrome_de_De_Winter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de De Winter est un profil d'électrocardiogramme (ECG) qui représente souvent un quasi-blocage soudain proche de l'artère descendante antérieure (LAD) gauche[1],[4]. Les symptômes comprennent la douleur thoracique, un essoufflement, et la sudation[1].
-Bien qu'elle soit généralement due à une obstruction de l'artère LAD, les autres artères du cœur peuvent être impliquées[1]. Les facteurs de risque sont similaires à ceux des autres types de cardiopathies ischémiques[1]. Le mécanisme de base n’est pas clair ; mais peut impliquer une ischémie sous-endocardique ou une circulation collatérale[1].
-Le diagnostic est basé sur un ECG montrant une dépression du segment ST au point J de 1 à 3 mm dans les dérivations V1 à V6, avec des ondes T hautes et symétriques[1]. Le segment ST est ascendant et il y a aussi souvent une élévation du segment ST de 0.5 à 2 mm dans la dérivation aVR[1],[5]. Le complexe QRS est normal ou légèrement large[1].
-Le traitement est celui d'un infarctus du myocarde avec sus-décalage du segment ST (STEMI), une intervention coronarienne percutanée (ICP) primaire étant préférable[1],[3]. Le syndrome de De Winter est peu fréquent, représentant environ 2 à 3 % des personnes souffrant d'infarctus du myocarde antérieur[1]. Les hommes sont plus souvent affectés que les femmes[1]. Il est décrit pour la première fois en 2008 par Robbert J. de Winter[1],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de De Winter est un profil d'électrocardiogramme (ECG) qui représente souvent un quasi-blocage soudain proche de l'artère descendante antérieure (LAD) gauche,. Les symptômes comprennent la douleur thoracique, un essoufflement, et la sudation.
+Bien qu'elle soit généralement due à une obstruction de l'artère LAD, les autres artères du cœur peuvent être impliquées. Les facteurs de risque sont similaires à ceux des autres types de cardiopathies ischémiques. Le mécanisme de base n’est pas clair ; mais peut impliquer une ischémie sous-endocardique ou une circulation collatérale.
+Le diagnostic est basé sur un ECG montrant une dépression du segment ST au point J de 1 à 3 mm dans les dérivations V1 à V6, avec des ondes T hautes et symétriques. Le segment ST est ascendant et il y a aussi souvent une élévation du segment ST de 0.5 à 2 mm dans la dérivation aVR,. Le complexe QRS est normal ou légèrement large.
+Le traitement est celui d'un infarctus du myocarde avec sus-décalage du segment ST (STEMI), une intervention coronarienne percutanée (ICP) primaire étant préférable,. Le syndrome de De Winter est peu fréquent, représentant environ 2 à 3 % des personnes souffrant d'infarctus du myocarde antérieur. Les hommes sont plus souvent affectés que les femmes. Il est décrit pour la première fois en 2008 par Robbert J. de Winter,.
 </t>
         </is>
       </c>
